--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Dispositif médical</t>
+    <t>Dispositif médical</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -344,9 +344,6 @@
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/FRLMDispositifMedical
 </t>
-  </si>
-  <si>
-    <t>Dispositif médical</t>
   </si>
   <si>
     <t>fr-lm-dispositif-medical-entree.affectionLongueDuree</t>
@@ -1866,10 +1863,10 @@
         <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1937,10 +1934,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1963,13 +1960,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2020,7 +2017,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2037,10 +2034,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2063,13 +2060,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2120,7 +2117,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2137,10 +2134,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2163,13 +2160,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2220,7 +2217,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2237,10 +2234,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2263,13 +2260,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2320,7 +2317,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -342,7 +342,7 @@
     <t>fr-lm-dispositif-medical-entree.dispositifMedical</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/FRLMDispositifMedical
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-lm-dispositif-medical
 </t>
   </si>
   <si>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-dispositif-medical-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
